--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Code.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897794E6-F964-4573-95AF-AE9983F0A272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C65BF7B-7A8D-4DD2-A27B-8B87FDD42438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码中的" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="801">
   <si>
     <t>##var</t>
   </si>
@@ -2771,26 +2771,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TextCode_Key_SkillDeatialsTip_UpgradeSuccess</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>升级成功</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TextCode_Key_SkillDeatialsTip_GetSuccess</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁成功</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TextCode_Key_SkillDeatialsTip_MaxSkill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>面临无尽的敌人，挑战世界排名！</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2811,6 +2799,74 @@
   </si>
   <si>
     <t>利息+&lt;sprite name=Gold&gt;{0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_SkillDetails_UpgradeSuccess</t>
+  </si>
+  <si>
+    <t>TextCode_Key_SkillDeatils_GetSuccess</t>
+  </si>
+  <si>
+    <t>TextCode_Key_SkillDetails_MaxSkill</t>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleSkillTips_Show</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}\n{1}\n{2}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleSkillTips_RestoreEnergy1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleSkillTips_RestoreEnergy2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合恢复{0}次</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每{0}回合恢复1次</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Diamond_GetMore</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>你需要 &lt;sprite name=Diamond&gt;{0} 才能继续, 是否获取更多?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleSkill_RestoreEnergyByDiamond</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前拥有&lt;sprite name=Diamond&gt;{0} , 是否花费 &lt;sprite name=Diamond&gt;{1} 恢复能量?</t>
+  </si>
+  <si>
+    <t>当前拥有&lt;sprite name=Diamond&gt;{0} , 是否花费 &lt;sprite name=Diamond&gt;{1} 恢复能量?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleSkill_RestoreEnergyByDiamond_NotEnough</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要花费 &lt;sprite name=Diamond&gt;{0} 才能恢复能量,当前 &lt;sprite name=Diamond&gt;不足</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleSkillTips_RestoreEnergy2_NotEnough</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}回合后将恢复(每{1}回合恢复1次)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3270,24 +3326,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="7"/>
-    <col min="2" max="2" width="50.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="67.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="77.25" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="7"/>
+    <col min="1" max="1" width="8.6640625" style="7"/>
+    <col min="2" max="2" width="50.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="67.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="77.21875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -3321,7 +3377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3334,7 +3390,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3345,7 +3401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3356,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -3367,7 +3423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3378,7 +3434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3389,7 +3445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3400,7 +3456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3411,7 +3467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3422,7 +3478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
@@ -3433,7 +3489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +3500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -3455,7 +3511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -3466,7 +3522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
@@ -3477,7 +3533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
@@ -3488,7 +3544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
@@ -3499,7 +3555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
@@ -3510,7 +3566,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
@@ -3521,7 +3577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -3532,7 +3588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>61</v>
       </c>
@@ -3543,7 +3599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
@@ -3554,7 +3610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
@@ -3565,7 +3621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>70</v>
       </c>
@@ -3576,7 +3632,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>73</v>
       </c>
@@ -3587,7 +3643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
@@ -3598,7 +3654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>79</v>
       </c>
@@ -3609,7 +3665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
@@ -3620,7 +3676,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
@@ -3631,7 +3687,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
@@ -3642,7 +3698,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
@@ -3653,7 +3709,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
@@ -3664,7 +3720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>93</v>
       </c>
@@ -3675,7 +3731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>96</v>
       </c>
@@ -3686,7 +3742,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
@@ -3697,7 +3753,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
@@ -3708,7 +3764,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>103</v>
       </c>
@@ -3719,7 +3775,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>105</v>
       </c>
@@ -3730,7 +3786,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>385</v>
       </c>
@@ -3741,7 +3797,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -3752,7 +3808,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>111</v>
       </c>
@@ -3763,7 +3819,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -3774,7 +3830,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>416</v>
       </c>
@@ -3785,7 +3841,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>417</v>
       </c>
@@ -3796,7 +3852,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>117</v>
       </c>
@@ -3807,7 +3863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>120</v>
       </c>
@@ -3818,7 +3874,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>697</v>
       </c>
@@ -3829,7 +3885,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>698</v>
       </c>
@@ -3840,29 +3896,29 @@
         <v>702</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>125</v>
       </c>
@@ -3873,7 +3929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>128</v>
       </c>
@@ -3884,7 +3940,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>129</v>
       </c>
@@ -3895,7 +3951,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>130</v>
       </c>
@@ -3906,7 +3962,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>132</v>
       </c>
@@ -3917,7 +3973,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>133</v>
       </c>
@@ -3929,7 +3985,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>134</v>
       </c>
@@ -3940,7 +3996,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>137</v>
       </c>
@@ -3951,7 +4007,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>140</v>
       </c>
@@ -3962,7 +4018,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>143</v>
       </c>
@@ -3973,7 +4029,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>144</v>
       </c>
@@ -3984,7 +4040,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>147</v>
       </c>
@@ -3995,7 +4051,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>150</v>
       </c>
@@ -4006,7 +4062,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>151</v>
       </c>
@@ -4017,7 +4073,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4028,7 +4084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>390</v>
       </c>
@@ -4039,7 +4095,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>391</v>
       </c>
@@ -4050,7 +4106,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>567</v>
       </c>
@@ -4061,7 +4117,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>159</v>
       </c>
@@ -4072,7 +4128,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>162</v>
       </c>
@@ -4083,7 +4139,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>164</v>
       </c>
@@ -4094,7 +4150,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>165</v>
       </c>
@@ -4105,7 +4161,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>166</v>
       </c>
@@ -4116,7 +4172,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>169</v>
       </c>
@@ -4127,7 +4183,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>172</v>
       </c>
@@ -4138,7 +4194,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>657</v>
       </c>
@@ -4149,7 +4205,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>175</v>
       </c>
@@ -4160,7 +4216,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>177</v>
       </c>
@@ -4171,7 +4227,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>180</v>
       </c>
@@ -4182,7 +4238,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>183</v>
       </c>
@@ -4193,7 +4249,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>582</v>
       </c>
@@ -4204,7 +4260,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>186</v>
       </c>
@@ -4215,7 +4271,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>189</v>
       </c>
@@ -4226,7 +4282,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>192</v>
@@ -4238,7 +4294,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>194</v>
@@ -4250,7 +4306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>196</v>
@@ -4262,7 +4318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>199</v>
@@ -4274,7 +4330,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>202</v>
@@ -4286,7 +4342,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>205</v>
@@ -4298,7 +4354,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>208</v>
@@ -4310,7 +4366,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>211</v>
@@ -4322,7 +4378,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>214</v>
@@ -4334,7 +4390,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>217</v>
@@ -4346,7 +4402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>218</v>
@@ -4358,7 +4414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>221</v>
@@ -4370,7 +4426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>224</v>
@@ -4382,7 +4438,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>227</v>
@@ -4394,7 +4450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>228</v>
@@ -4406,7 +4462,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>231</v>
@@ -4418,7 +4474,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>234</v>
@@ -4430,7 +4486,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>236</v>
@@ -4442,7 +4498,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
         <v>239</v>
@@ -4454,7 +4510,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
         <v>242</v>
@@ -4466,7 +4522,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>245</v>
@@ -4478,7 +4534,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>247</v>
@@ -4490,7 +4546,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>248</v>
@@ -4502,7 +4558,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>249</v>
@@ -4514,7 +4570,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>252</v>
@@ -4526,7 +4582,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>254</v>
@@ -4538,7 +4594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>255</v>
@@ -4550,7 +4606,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>258</v>
       </c>
@@ -4561,7 +4617,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>260</v>
       </c>
@@ -4572,7 +4628,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
         <v>262</v>
       </c>
@@ -4583,7 +4639,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
         <v>264</v>
       </c>
@@ -4594,7 +4650,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
         <v>266</v>
       </c>
@@ -4605,7 +4661,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
         <v>268</v>
       </c>
@@ -4616,7 +4672,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
         <v>269</v>
       </c>
@@ -4627,7 +4683,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
         <v>270</v>
       </c>
@@ -4638,7 +4694,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
         <v>271</v>
       </c>
@@ -4649,7 +4705,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
         <v>272</v>
       </c>
@@ -4660,7 +4716,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
         <v>273</v>
       </c>
@@ -4671,7 +4727,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>274</v>
       </c>
@@ -4682,7 +4738,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
         <v>275</v>
       </c>
@@ -4693,7 +4749,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
         <v>277</v>
       </c>
@@ -4704,7 +4760,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>278</v>
       </c>
@@ -4715,7 +4771,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
         <v>280</v>
       </c>
@@ -4726,7 +4782,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
         <v>281</v>
       </c>
@@ -4737,7 +4793,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
         <v>388</v>
       </c>
@@ -4748,7 +4804,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
         <v>283</v>
       </c>
@@ -4759,7 +4815,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
         <v>285</v>
       </c>
@@ -4770,7 +4826,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
         <v>287</v>
       </c>
@@ -4781,7 +4837,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
         <v>288</v>
       </c>
@@ -4792,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>289</v>
       </c>
@@ -4803,7 +4859,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>290</v>
       </c>
@@ -4814,7 +4870,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
         <v>292</v>
       </c>
@@ -4825,7 +4881,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>294</v>
       </c>
@@ -4836,7 +4892,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>296</v>
       </c>
@@ -4847,7 +4903,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>764</v>
       </c>
@@ -4858,7 +4914,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
         <v>765</v>
       </c>
@@ -4869,7 +4925,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>766</v>
       </c>
@@ -4880,11 +4936,11 @@
         <v>767</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="10"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>298</v>
       </c>
@@ -4895,7 +4951,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
         <v>299</v>
       </c>
@@ -4906,7 +4962,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
         <v>300</v>
       </c>
@@ -4917,7 +4973,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
         <v>302</v>
       </c>
@@ -4928,7 +4984,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
         <v>304</v>
       </c>
@@ -4939,7 +4995,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
         <v>307</v>
       </c>
@@ -4950,7 +5006,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
         <v>350</v>
       </c>
@@ -4961,7 +5017,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
         <v>351</v>
       </c>
@@ -4972,7 +5028,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
         <v>310</v>
       </c>
@@ -4983,7 +5039,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
         <v>313</v>
       </c>
@@ -4994,7 +5050,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
         <v>316</v>
       </c>
@@ -5005,7 +5061,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
         <v>319</v>
       </c>
@@ -5016,7 +5072,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
         <v>758</v>
       </c>
@@ -5027,7 +5083,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
         <v>321</v>
       </c>
@@ -5038,7 +5094,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
         <v>324</v>
       </c>
@@ -5049,7 +5105,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>327</v>
       </c>
@@ -5060,10 +5116,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
         <v>434</v>
       </c>
@@ -5074,7 +5130,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="3" t="s">
         <v>435</v>
       </c>
@@ -5085,10 +5141,10 @@
         <v>602</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
         <v>331</v>
       </c>
@@ -5099,7 +5155,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
         <v>333</v>
       </c>
@@ -5110,7 +5166,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
         <v>336</v>
       </c>
@@ -5121,7 +5177,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
         <v>338</v>
       </c>
@@ -5132,7 +5188,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="13" t="s">
         <v>340</v>
       </c>
@@ -5143,7 +5199,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="13" t="s">
         <v>343</v>
       </c>
@@ -5154,7 +5210,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="13" t="s">
         <v>341</v>
       </c>
@@ -5165,7 +5221,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="13" t="s">
         <v>342</v>
       </c>
@@ -5176,7 +5232,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="13" t="s">
         <v>345</v>
       </c>
@@ -5187,7 +5243,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="3" t="s">
         <v>347</v>
       </c>
@@ -5198,7 +5254,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
         <v>360</v>
       </c>
@@ -5209,7 +5265,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="3" t="s">
         <v>363</v>
       </c>
@@ -5220,7 +5276,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
         <v>395</v>
       </c>
@@ -5231,7 +5287,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
         <v>397</v>
       </c>
@@ -5242,7 +5298,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="3" t="s">
         <v>398</v>
       </c>
@@ -5253,7 +5309,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
         <v>583</v>
       </c>
@@ -5264,7 +5320,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
         <v>366</v>
       </c>
@@ -5275,7 +5331,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
         <v>394</v>
       </c>
@@ -5286,7 +5342,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
         <v>396</v>
       </c>
@@ -5297,7 +5353,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
         <v>367</v>
       </c>
@@ -5308,7 +5364,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
         <v>377</v>
       </c>
@@ -5319,7 +5375,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
         <v>563</v>
       </c>
@@ -5330,7 +5386,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
         <v>565</v>
       </c>
@@ -5341,7 +5397,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>378</v>
       </c>
@@ -5352,7 +5408,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
         <v>415</v>
       </c>
@@ -5363,7 +5419,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
         <v>402</v>
       </c>
@@ -5374,7 +5430,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
         <v>406</v>
       </c>
@@ -5385,7 +5441,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
         <v>437</v>
       </c>
@@ -5396,7 +5452,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
         <v>408</v>
       </c>
@@ -5407,7 +5463,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
         <v>409</v>
       </c>
@@ -5418,7 +5474,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="3" t="s">
         <v>410</v>
       </c>
@@ -5429,7 +5485,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="3" t="s">
         <v>422</v>
       </c>
@@ -5440,7 +5496,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="3" t="s">
         <v>570</v>
       </c>
@@ -5451,7 +5507,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="3" t="s">
         <v>571</v>
       </c>
@@ -5462,12 +5518,12 @@
         <v>729</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
         <v>628</v>
       </c>
@@ -5478,21 +5534,21 @@
         <v>762</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
         <v>412</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
         <v>413</v>
       </c>
@@ -5503,7 +5559,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
         <v>631</v>
       </c>
@@ -5514,17 +5570,17 @@
         <v>760</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
         <v>424</v>
       </c>
@@ -5535,7 +5591,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
         <v>425</v>
       </c>
@@ -5546,7 +5602,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
         <v>426</v>
       </c>
@@ -5557,7 +5613,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
         <v>430</v>
       </c>
@@ -5568,7 +5624,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
         <v>431</v>
       </c>
@@ -5579,14 +5635,14 @@
         <v>734</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
         <v>562</v>
       </c>
@@ -5597,7 +5653,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
         <v>439</v>
       </c>
@@ -5608,7 +5664,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
         <v>442</v>
       </c>
@@ -5619,7 +5675,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
         <v>445</v>
       </c>
@@ -5630,7 +5686,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
         <v>448</v>
       </c>
@@ -5641,7 +5697,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="3" t="s">
         <v>451</v>
       </c>
@@ -5652,7 +5708,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="3" t="s">
         <v>454</v>
       </c>
@@ -5663,7 +5719,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
         <v>457</v>
       </c>
@@ -5674,7 +5730,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
         <v>459</v>
       </c>
@@ -5685,7 +5741,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
         <v>495</v>
       </c>
@@ -5696,7 +5752,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
         <v>492</v>
       </c>
@@ -5707,7 +5763,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
         <v>461</v>
       </c>
@@ -5718,7 +5774,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
         <v>471</v>
       </c>
@@ -5729,7 +5785,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
         <v>472</v>
       </c>
@@ -5740,7 +5796,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
         <v>477</v>
       </c>
@@ -5751,7 +5807,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>489</v>
       </c>
@@ -5762,7 +5818,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
         <v>487</v>
       </c>
@@ -5773,7 +5829,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B246" s="3" t="s">
         <v>486</v>
       </c>
@@ -5784,7 +5840,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="3" t="s">
         <v>485</v>
       </c>
@@ -5795,7 +5851,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
         <v>484</v>
       </c>
@@ -5806,7 +5862,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>496</v>
@@ -5818,7 +5874,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>497</v>
@@ -5830,7 +5886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>503</v>
@@ -5842,7 +5898,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
         <v>504</v>
       </c>
@@ -5853,7 +5909,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B255" s="3" t="s">
         <v>507</v>
       </c>
@@ -5864,7 +5920,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B256" s="3" t="s">
         <v>505</v>
       </c>
@@ -5875,7 +5931,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
         <v>506</v>
       </c>
@@ -5886,7 +5942,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
         <v>508</v>
       </c>
@@ -5897,7 +5953,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
         <v>509</v>
       </c>
@@ -5908,7 +5964,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B261" s="3" t="s">
         <v>512</v>
       </c>
@@ -5919,7 +5975,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="3" t="s">
         <v>513</v>
       </c>
@@ -5930,7 +5986,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
         <v>514</v>
       </c>
@@ -5941,7 +5997,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="3" t="s">
         <v>515</v>
       </c>
@@ -5952,7 +6008,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" s="3" t="s">
         <v>516</v>
       </c>
@@ -5963,7 +6019,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="3" t="s">
         <v>517</v>
       </c>
@@ -5974,7 +6030,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B268" s="3" t="s">
         <v>519</v>
       </c>
@@ -5985,7 +6041,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="3" t="s">
         <v>520</v>
       </c>
@@ -5996,7 +6052,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="3" t="s">
         <v>521</v>
       </c>
@@ -6007,7 +6063,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="3" t="s">
         <v>522</v>
       </c>
@@ -6018,7 +6074,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="3" t="s">
         <v>523</v>
       </c>
@@ -6029,7 +6085,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="3" t="s">
         <v>524</v>
       </c>
@@ -6040,7 +6096,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="3" t="s">
         <v>540</v>
       </c>
@@ -6051,7 +6107,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="3" t="s">
         <v>541</v>
       </c>
@@ -6062,7 +6118,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="3" t="s">
         <v>544</v>
       </c>
@@ -6073,7 +6129,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="3" t="s">
         <v>545</v>
       </c>
@@ -6084,7 +6140,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="3" t="s">
         <v>546</v>
       </c>
@@ -6095,7 +6151,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="3" t="s">
         <v>547</v>
       </c>
@@ -6106,7 +6162,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="3" t="s">
         <v>548</v>
       </c>
@@ -6117,7 +6173,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="3" t="s">
         <v>549</v>
       </c>
@@ -6128,7 +6184,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="3" t="s">
         <v>558</v>
       </c>
@@ -6139,7 +6195,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="3" t="s">
         <v>550</v>
       </c>
@@ -6150,7 +6206,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="3" t="s">
         <v>551</v>
       </c>
@@ -6161,12 +6217,12 @@
         <v>744</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>579</v>
       </c>
@@ -6177,7 +6233,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="3" t="s">
         <v>578</v>
       </c>
@@ -6188,7 +6244,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="3" t="s">
         <v>645</v>
       </c>
@@ -6199,7 +6255,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="3" t="s">
         <v>648</v>
       </c>
@@ -6210,7 +6266,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="293" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
         <v>634</v>
       </c>
@@ -6221,7 +6277,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="294" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
         <v>635</v>
       </c>
@@ -6232,7 +6288,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="295" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
         <v>636</v>
       </c>
@@ -6243,7 +6299,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="7" t="s">
         <v>651</v>
       </c>
@@ -6254,7 +6310,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="7" t="s">
         <v>653</v>
       </c>
@@ -6265,7 +6321,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="7" t="s">
         <v>655</v>
       </c>
@@ -6276,7 +6332,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="3" t="s">
         <v>670</v>
       </c>
@@ -6287,7 +6343,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="7" t="s">
         <v>667</v>
       </c>
@@ -6298,7 +6354,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="7" t="s">
         <v>668</v>
       </c>
@@ -6309,7 +6365,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="7" t="s">
         <v>669</v>
       </c>
@@ -6320,10 +6376,10 @@
         <v>686</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E305" s="15"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="3" t="s">
         <v>673</v>
       </c>
@@ -6334,7 +6390,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="3" t="s">
         <v>678</v>
       </c>
@@ -6345,7 +6401,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="3" t="s">
         <v>679</v>
       </c>
@@ -6356,14 +6412,14 @@
         <v>677</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="E310"/>
       <c r="F310"/>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="3" t="s">
         <v>689</v>
       </c>
@@ -6374,7 +6430,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="3" t="s">
         <v>690</v>
       </c>
@@ -6385,7 +6441,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="3" t="s">
         <v>691</v>
       </c>
@@ -6396,7 +6452,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="3" t="s">
         <v>692</v>
       </c>
@@ -6407,7 +6463,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
         <v>746</v>
       </c>
@@ -6418,7 +6474,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="3" t="s">
         <v>747</v>
       </c>
@@ -6430,7 +6486,7 @@
       </c>
       <c r="F318"/>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="3" t="s">
         <v>752</v>
       </c>
@@ -6441,7 +6497,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="3" t="s">
         <v>770</v>
       </c>
@@ -6452,7 +6508,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="3" t="s">
         <v>771</v>
       </c>
@@ -6463,7 +6519,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="3" t="s">
         <v>773</v>
       </c>
@@ -6474,37 +6530,119 @@
         <v>774</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="E325" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B326" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="E325" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B326" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="3" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>774</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>774</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B329" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B330" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B331" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B332" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B334" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E336" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Code.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C65BF7B-7A8D-4DD2-A27B-8B87FDD42438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E0CC7B-5EF1-4CCE-92D6-D7985DA2A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码中的" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="842">
   <si>
     <t>##var</t>
   </si>
@@ -1900,10 +1900,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>将传送门拖到战场上以生成期望的路线。怪物将沿着路线攻击您的城堡。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TextCode_Key_TutorialText_Challenge1_Buy1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2530,10 +2526,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Drag to create a path. Monsters will follow it to attack your castle</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Purchase a tower</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2868,6 +2860,167 @@
   <si>
     <t>{0}回合后将恢复(每{1}回合恢复1次)</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动获得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬请期待</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ShowTip_UnLockByPVE</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ShowTip_UnLockByPVESeason</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ShowTip_UnLockByActivity</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ShowTip_UnLockSoon</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ClickTip_UnLockByPVESeason</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ClickTip_UnLockByActivity</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ClickTip_UnLockByDiamond</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ClickTip_UnLockByPay</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ClickTip_UnLockSoon</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ShowTip_UnLockDefault</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ClickTip_UnLockByPVE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ClickTip_UnLockDefault</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ShowTip_UnLockByPay</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ShowTip_UnLockByDiamond</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拥有</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡{0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite name=Diamond&gt;{0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}关卡{1}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owned</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过挑战关卡{0}后获得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过{0}关卡{1}后获得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始拥有</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过特定活动获得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费${0}获得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initially Owned</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocked after completing Challenge Level {0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocked after completing {0} Level {1}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained through specific events</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spend ${0} to unlock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Events</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} Lv {1}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Challenge Lv {0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough diamonds</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ItemUnLockSuccess</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁成功</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将传送门放置到高亮区域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place the portal in the highlighted area</t>
+  </si>
+  <si>
+    <t>New Skill Acquired</t>
   </si>
 </sst>
 </file>
@@ -3326,24 +3479,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F337"/>
+  <dimension ref="A1:F355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7"/>
-    <col min="2" max="2" width="50.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="67.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="77.21875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="8.625" style="7"/>
+    <col min="2" max="2" width="50.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="67.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="77.25" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -3377,7 +3530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3390,7 +3543,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3401,7 +3554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3412,7 +3565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -3423,7 +3576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3434,7 +3587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3445,7 +3598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3456,7 +3609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3467,7 +3620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3478,7 +3631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
@@ -3489,7 +3642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3500,7 +3653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -3511,7 +3664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -3522,7 +3675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
@@ -3533,7 +3686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
@@ -3544,7 +3697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
@@ -3555,7 +3708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
@@ -3566,7 +3719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
@@ -3577,7 +3730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -3588,7 +3741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>61</v>
       </c>
@@ -3599,7 +3752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
@@ -3610,7 +3763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
@@ -3621,7 +3774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>70</v>
       </c>
@@ -3632,7 +3785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>73</v>
       </c>
@@ -3643,7 +3796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
@@ -3654,7 +3807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>79</v>
       </c>
@@ -3665,7 +3818,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
@@ -3673,10 +3826,10 @@
         <v>83</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
@@ -3684,10 +3837,10 @@
         <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
@@ -3695,10 +3848,10 @@
         <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
@@ -3706,10 +3859,10 @@
         <v>89</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
@@ -3720,7 +3873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>93</v>
       </c>
@@ -3731,7 +3884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>96</v>
       </c>
@@ -3739,10 +3892,10 @@
         <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
@@ -3750,10 +3903,10 @@
         <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
@@ -3764,7 +3917,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>103</v>
       </c>
@@ -3772,10 +3925,10 @@
         <v>104</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>105</v>
       </c>
@@ -3786,7 +3939,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>385</v>
       </c>
@@ -3797,7 +3950,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -3808,7 +3961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>111</v>
       </c>
@@ -3819,7 +3972,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -3830,7 +3983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>416</v>
       </c>
@@ -3841,7 +3994,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>417</v>
       </c>
@@ -3852,7 +4005,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>117</v>
       </c>
@@ -3863,7 +4016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>120</v>
       </c>
@@ -3874,51 +4027,51 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>125</v>
       </c>
@@ -3929,29 +4082,29 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>130</v>
       </c>
@@ -3959,10 +4112,10 @@
         <v>131</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>132</v>
       </c>
@@ -3970,10 +4123,10 @@
         <v>468</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>133</v>
       </c>
@@ -3981,11 +4134,11 @@
         <v>469</v>
       </c>
       <c r="E58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>134</v>
       </c>
@@ -3996,7 +4149,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>137</v>
       </c>
@@ -4007,7 +4160,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>140</v>
       </c>
@@ -4018,7 +4171,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>143</v>
       </c>
@@ -4029,7 +4182,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>144</v>
       </c>
@@ -4040,7 +4193,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>147</v>
       </c>
@@ -4051,7 +4204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>150</v>
       </c>
@@ -4062,7 +4215,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>151</v>
       </c>
@@ -4073,7 +4226,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4084,7 +4237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>390</v>
       </c>
@@ -4095,7 +4248,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>391</v>
       </c>
@@ -4103,21 +4256,21 @@
         <v>392</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>159</v>
       </c>
@@ -4128,7 +4281,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>162</v>
       </c>
@@ -4136,10 +4289,10 @@
         <v>163</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>164</v>
       </c>
@@ -4147,21 +4300,21 @@
         <v>466</v>
       </c>
       <c r="E73" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E74" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>166</v>
       </c>
@@ -4172,7 +4325,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>169</v>
       </c>
@@ -4183,7 +4336,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>172</v>
       </c>
@@ -4194,29 +4347,29 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>177</v>
       </c>
@@ -4227,7 +4380,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>180</v>
       </c>
@@ -4238,7 +4391,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>183</v>
       </c>
@@ -4249,18 +4402,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>186</v>
       </c>
@@ -4271,7 +4424,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>189</v>
       </c>
@@ -4282,7 +4435,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>192</v>
@@ -4294,7 +4447,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>194</v>
@@ -4306,7 +4459,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>196</v>
@@ -4318,7 +4471,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>199</v>
@@ -4330,7 +4483,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>202</v>
@@ -4342,7 +4495,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>205</v>
@@ -4354,7 +4507,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>208</v>
@@ -4366,7 +4519,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>211</v>
@@ -4378,7 +4531,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>214</v>
@@ -4390,7 +4543,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>217</v>
@@ -4402,7 +4555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>218</v>
@@ -4414,7 +4567,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>221</v>
@@ -4426,7 +4579,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>224</v>
@@ -4438,7 +4591,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>227</v>
@@ -4450,7 +4603,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>228</v>
@@ -4462,7 +4615,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>231</v>
@@ -4474,7 +4627,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>234</v>
@@ -4486,7 +4639,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>236</v>
@@ -4498,7 +4651,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
         <v>239</v>
@@ -4510,7 +4663,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
         <v>242</v>
@@ -4522,7 +4675,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>245</v>
@@ -4531,10 +4684,10 @@
         <v>246</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>247</v>
@@ -4546,7 +4699,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>248</v>
@@ -4558,7 +4711,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>249</v>
@@ -4570,7 +4723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>252</v>
@@ -4579,10 +4732,10 @@
         <v>253</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>254</v>
@@ -4594,7 +4747,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>255</v>
@@ -4606,7 +4759,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>258</v>
       </c>
@@ -4614,10 +4767,10 @@
         <v>259</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>260</v>
       </c>
@@ -4625,10 +4778,10 @@
         <v>261</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>262</v>
       </c>
@@ -4636,10 +4789,10 @@
         <v>263</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>264</v>
       </c>
@@ -4647,10 +4800,10 @@
         <v>265</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>266</v>
       </c>
@@ -4658,21 +4811,21 @@
         <v>267</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>269</v>
       </c>
@@ -4680,32 +4833,32 @@
         <v>381</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>272</v>
       </c>
@@ -4713,21 +4866,21 @@
         <v>382</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>539</v>
+        <v>839</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>274</v>
       </c>
@@ -4735,10 +4888,10 @@
         <v>383</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>275</v>
       </c>
@@ -4746,10 +4899,10 @@
         <v>276</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
         <v>277</v>
       </c>
@@ -4757,10 +4910,10 @@
         <v>538</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>278</v>
       </c>
@@ -4768,10 +4921,10 @@
         <v>279</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
         <v>280</v>
       </c>
@@ -4779,10 +4932,10 @@
         <v>384</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
         <v>281</v>
       </c>
@@ -4790,10 +4943,10 @@
         <v>282</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>388</v>
       </c>
@@ -4801,10 +4954,10 @@
         <v>389</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
         <v>283</v>
       </c>
@@ -4812,10 +4965,10 @@
         <v>284</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>285</v>
       </c>
@@ -4823,21 +4976,21 @@
         <v>286</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
         <v>288</v>
       </c>
@@ -4848,18 +5001,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="10" t="s">
         <v>289</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
         <v>290</v>
       </c>
@@ -4867,10 +5020,10 @@
         <v>291</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
         <v>292</v>
       </c>
@@ -4878,10 +5031,10 @@
         <v>293</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
         <v>294</v>
       </c>
@@ -4889,10 +5042,10 @@
         <v>295</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
         <v>296</v>
       </c>
@@ -4900,47 +5053,47 @@
         <v>297</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>767</v>
-      </c>
       <c r="E142" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="10"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
         <v>298</v>
       </c>
@@ -4948,10 +5101,10 @@
         <v>464</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
         <v>299</v>
       </c>
@@ -4959,10 +5112,10 @@
         <v>463</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="10" t="s">
         <v>300</v>
       </c>
@@ -4970,10 +5123,10 @@
         <v>301</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="10" t="s">
         <v>302</v>
       </c>
@@ -4981,10 +5134,10 @@
         <v>303</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="10" t="s">
         <v>304</v>
       </c>
@@ -4995,7 +5148,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="10" t="s">
         <v>307</v>
       </c>
@@ -5006,7 +5159,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
         <v>350</v>
       </c>
@@ -5017,7 +5170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>351</v>
       </c>
@@ -5028,7 +5181,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
         <v>310</v>
       </c>
@@ -5039,7 +5192,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
         <v>313</v>
       </c>
@@ -5050,7 +5203,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
         <v>316</v>
       </c>
@@ -5061,7 +5214,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
         <v>319</v>
       </c>
@@ -5069,21 +5222,21 @@
         <v>320</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="10" t="s">
         <v>321</v>
       </c>
@@ -5094,7 +5247,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="10" t="s">
         <v>324</v>
       </c>
@@ -5105,7 +5258,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="10" t="s">
         <v>327</v>
       </c>
@@ -5116,10 +5269,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
         <v>434</v>
       </c>
@@ -5130,7 +5283,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
         <v>435</v>
       </c>
@@ -5138,13 +5291,13 @@
         <v>433</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
         <v>331</v>
       </c>
@@ -5155,7 +5308,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
         <v>333</v>
       </c>
@@ -5166,7 +5319,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
         <v>336</v>
       </c>
@@ -5177,7 +5330,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
         <v>338</v>
       </c>
@@ -5188,7 +5341,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="13" t="s">
         <v>340</v>
       </c>
@@ -5199,7 +5352,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="13" t="s">
         <v>343</v>
       </c>
@@ -5210,7 +5363,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="13" t="s">
         <v>341</v>
       </c>
@@ -5218,10 +5371,10 @@
         <v>344</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="13" t="s">
         <v>342</v>
       </c>
@@ -5232,7 +5385,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="13" t="s">
         <v>345</v>
       </c>
@@ -5243,7 +5396,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
         <v>347</v>
       </c>
@@ -5254,7 +5407,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="7" t="s">
         <v>360</v>
       </c>
@@ -5265,7 +5418,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
         <v>363</v>
       </c>
@@ -5276,7 +5429,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
         <v>395</v>
       </c>
@@ -5287,7 +5440,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
         <v>397</v>
       </c>
@@ -5295,10 +5448,10 @@
         <v>393</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
         <v>398</v>
       </c>
@@ -5309,18 +5462,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="E185" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="7" t="s">
         <v>366</v>
       </c>
@@ -5331,7 +5484,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
         <v>394</v>
       </c>
@@ -5342,7 +5495,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="3" t="s">
         <v>396</v>
       </c>
@@ -5350,10 +5503,10 @@
         <v>369</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="7" t="s">
         <v>367</v>
       </c>
@@ -5364,7 +5517,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
         <v>377</v>
       </c>
@@ -5375,29 +5528,29 @@
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="E191" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="C192" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E192" s="14" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E192" s="14" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
         <v>378</v>
       </c>
@@ -5408,7 +5561,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
         <v>415</v>
       </c>
@@ -5416,10 +5569,10 @@
         <v>414</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
         <v>402</v>
       </c>
@@ -5430,7 +5583,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
         <v>406</v>
       </c>
@@ -5441,7 +5594,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
         <v>437</v>
       </c>
@@ -5452,18 +5605,18 @@
         <v>438</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
         <v>409</v>
       </c>
@@ -5471,10 +5624,10 @@
         <v>411</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
         <v>410</v>
       </c>
@@ -5482,10 +5635,10 @@
         <v>537</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
         <v>422</v>
       </c>
@@ -5493,94 +5646,94 @@
         <v>423</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="E208" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="3" t="s">
         <v>412</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
         <v>413</v>
       </c>
       <c r="C211" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="3" t="s">
+      <c r="C212" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>632</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
         <v>424</v>
       </c>
@@ -5588,10 +5741,10 @@
         <v>427</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="3" t="s">
         <v>425</v>
       </c>
@@ -5599,10 +5752,10 @@
         <v>428</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="3" t="s">
         <v>426</v>
       </c>
@@ -5610,50 +5763,50 @@
         <v>429</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
         <v>430</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" s="3" t="s">
         <v>431</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>432</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B226" s="3" t="s">
         <v>439</v>
       </c>
@@ -5664,7 +5817,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="3" t="s">
         <v>442</v>
       </c>
@@ -5675,7 +5828,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" s="3" t="s">
         <v>445</v>
       </c>
@@ -5686,7 +5839,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B229" s="3" t="s">
         <v>448</v>
       </c>
@@ -5697,7 +5850,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B230" s="3" t="s">
         <v>451</v>
       </c>
@@ -5708,7 +5861,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B231" s="3" t="s">
         <v>454</v>
       </c>
@@ -5719,7 +5872,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
         <v>457</v>
       </c>
@@ -5727,10 +5880,10 @@
         <v>458</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B233" s="3" t="s">
         <v>459</v>
       </c>
@@ -5738,10 +5891,10 @@
         <v>460</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B235" s="3" t="s">
         <v>495</v>
       </c>
@@ -5752,7 +5905,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B236" s="3" t="s">
         <v>492</v>
       </c>
@@ -5763,7 +5916,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
         <v>461</v>
       </c>
@@ -5771,10 +5924,10 @@
         <v>462</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B239" s="3" t="s">
         <v>471</v>
       </c>
@@ -5785,7 +5938,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B240" s="3" t="s">
         <v>472</v>
       </c>
@@ -5793,10 +5946,10 @@
         <v>474</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B241" s="3" t="s">
         <v>477</v>
       </c>
@@ -5804,10 +5957,10 @@
         <v>476</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B243" s="3" t="s">
         <v>489</v>
       </c>
@@ -5818,7 +5971,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
         <v>487</v>
       </c>
@@ -5829,7 +5982,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
         <v>486</v>
       </c>
@@ -5840,7 +5993,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B247" s="3" t="s">
         <v>485</v>
       </c>
@@ -5848,10 +6001,10 @@
         <v>488</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B248" s="3" t="s">
         <v>484</v>
       </c>
@@ -5862,7 +6015,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>496</v>
@@ -5874,7 +6027,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>497</v>
@@ -5886,7 +6039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>503</v>
@@ -5898,18 +6051,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B254" s="3" t="s">
         <v>504</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B255" s="3" t="s">
         <v>507</v>
       </c>
@@ -5920,7 +6073,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B256" s="3" t="s">
         <v>505</v>
       </c>
@@ -5931,7 +6084,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B257" s="3" t="s">
         <v>506</v>
       </c>
@@ -5942,7 +6095,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B258" s="3" t="s">
         <v>508</v>
       </c>
@@ -5953,7 +6106,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B259" s="3" t="s">
         <v>509</v>
       </c>
@@ -5964,7 +6117,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B261" s="3" t="s">
         <v>512</v>
       </c>
@@ -5972,10 +6125,10 @@
         <v>526</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B262" s="3" t="s">
         <v>513</v>
       </c>
@@ -5986,7 +6139,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B263" s="3" t="s">
         <v>514</v>
       </c>
@@ -5997,7 +6150,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B264" s="3" t="s">
         <v>515</v>
       </c>
@@ -6008,7 +6161,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B265" s="3" t="s">
         <v>516</v>
       </c>
@@ -6019,7 +6172,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B266" s="3" t="s">
         <v>517</v>
       </c>
@@ -6030,7 +6183,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B268" s="3" t="s">
         <v>519</v>
       </c>
@@ -6038,10 +6191,10 @@
         <v>527</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B269" s="3" t="s">
         <v>520</v>
       </c>
@@ -6052,7 +6205,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B270" s="3" t="s">
         <v>521</v>
       </c>
@@ -6063,7 +6216,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B271" s="3" t="s">
         <v>522</v>
       </c>
@@ -6074,7 +6227,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B272" s="3" t="s">
         <v>523</v>
       </c>
@@ -6085,7 +6238,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B273" s="3" t="s">
         <v>524</v>
       </c>
@@ -6096,410 +6249,410 @@
         <v>536</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B275" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B276" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C276" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E276" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B277" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E277" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B276" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E276" s="3" t="s">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E278" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B277" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C277" s="3" t="s">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B279" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E279" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B278" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E278" s="3" t="s">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B280" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E280" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B279" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E279" s="3" t="s">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E281" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B280" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E280" s="3" t="s">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E282" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B281" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C281" s="3" t="s">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B283" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E283" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E284" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B282" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E282" s="3" t="s">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E285" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B285" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B289" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C289" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E289" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E289" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B290" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="E290" t="s">
         <v>646</v>
       </c>
-      <c r="E290" t="s">
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B291" s="3" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B291" s="3" t="s">
+      <c r="C291" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="E291" t="s">
         <v>649</v>
       </c>
-      <c r="E291" t="s">
+    </row>
+    <row r="293" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B297" s="7" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="293" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E293" s="1" t="s">
+      <c r="C297" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B298" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E298" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="294" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E294" s="1" t="s">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B299" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E299" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="295" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B297" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B298" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B299" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B301" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C301" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E301" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="E301" s="7" t="s">
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B302" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B302" s="7" t="s">
+      <c r="E302" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B303" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E302" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B303" s="7" t="s">
+      <c r="E303" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B304" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E303" s="7" t="s">
+      <c r="C304" s="3" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B304" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C304" s="3" t="s">
+      <c r="E304" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="E304" s="7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E305" s="15"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B306" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E306" s="15" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B308" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C308" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="C306" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="E306" s="15" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B308" s="3" t="s">
+      <c r="E308" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B309" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C308" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="E308" s="7" t="s">
+      <c r="C309" s="7" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B309" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C309" s="7" t="s">
+      <c r="E309" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="E309" s="7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="E310"/>
       <c r="F310"/>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B312" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E312" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B313" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="E312" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B313" s="3" t="s">
+      <c r="C313" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B314" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="E313" s="3" t="s">
+      <c r="E314" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B314" s="3" t="s">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B315" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C315" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="E314" s="3" t="s">
+      <c r="E315" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B315" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B317" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="E317" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="E317" s="14" t="s">
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B318" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="F318"/>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B319" s="3" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B318" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="E318" s="14" t="s">
+      <c r="C319" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="E319" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="F318"/>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B319" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="E319" s="14" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B321" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>404</v>
@@ -6508,141 +6661,306 @@
         <v>404</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B322" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B323" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="E323" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B323" s="3" t="s">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B325" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="E325" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B326" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="E323" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B325" s="3" t="s">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B327" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="C325" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B326" s="3" t="s">
+      <c r="C327" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B329" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B327" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B329" s="3" t="s">
+      <c r="E329" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B330" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C330" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B331" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B330" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="C330" s="3" t="s">
+      <c r="C331" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B332" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B334" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="E330" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B331" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="C331" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="E331" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B332" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B334" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>793</v>
-      </c>
       <c r="E334" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B336" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="E336" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B337" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="E336" s="7" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B337" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>798</v>
-      </c>
       <c r="E337" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B339" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B340" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B341" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B342" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B343" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B344" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B345" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B347" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B348" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B349" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B350" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B351" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E351" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B352" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B353" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B355" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Code.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E0CC7B-5EF1-4CCE-92D6-D7985DA2A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98602E51-5B38-4505-97CA-81C163AAA258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="867">
   <si>
     <t>##var</t>
   </si>
@@ -1198,10 +1198,6 @@
   </si>
   <si>
     <t>生成足够的地形后，点击继续。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖动您的城堡到战场上并保护它。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2522,10 +2518,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Drag castle onto the battlefield and defend it</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Purchase a tower</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2819,14 +2811,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>每回合恢复{0}次</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每{0}回合恢复1次</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TextCode_Key_Diamond_GetMore</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2840,9 +2824,6 @@
   </si>
   <si>
     <t>当前拥有&lt;sprite name=Diamond&gt;{0} , 是否花费 &lt;sprite name=Diamond&gt;{1} 恢复能量?</t>
-  </si>
-  <si>
-    <t>当前拥有&lt;sprite name=Diamond&gt;{0} , 是否花费 &lt;sprite name=Diamond&gt;{1} 恢复能量?</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2850,18 +2831,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>需要花费 &lt;sprite name=Diamond&gt;{0} 才能恢复能量,当前 &lt;sprite name=Diamond&gt;不足</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TextCode_Key_BattleSkillTips_RestoreEnergy2_NotEnough</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>{0}回合后将恢复(每{1}回合恢复1次)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动获得</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3013,14 +2986,127 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>将传送门放置到高亮区域</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Place the portal in the highlighted area</t>
-  </si>
-  <si>
     <t>New Skill Acquired</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_Skills</t>
+  </si>
+  <si>
+    <t>点击释放技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap to cast a skill.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_Bags</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这里配置塔和技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure towers and skills here.</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>No Energy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Shared Energy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Max Level</t>
+  </si>
+  <si>
+    <t>Upgraded</t>
+  </si>
+  <si>
+    <t>Unlocked</t>
+  </si>
+  <si>
+    <t>每回合恢复{0}点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每{0}回合恢复1点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}回合后将恢复(每{1}回合恢复1点)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore {0} per turn</t>
+  </si>
+  <si>
+    <t>Restore 1 every {0} turns</t>
+  </si>
+  <si>
+    <t>Restore after {0} turns (Restore 1 every {1} turns)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currently have &lt;sprite name=Diamond&gt;{0}. Do you want to spend &lt;sprite name=Diamond&gt;{1} to restore energy?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need &lt;sprite name=Diamond&gt;{0} to continue, would you like to get more?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need &lt;sprite name=Diamond&gt;{0} to restore energy. Current is insufficient.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要花费 &lt;sprite name=Diamond&gt;{0} 才能恢复能量,当前不足</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可达区域太小</t>
+  </si>
+  <si>
+    <t>Recahable area is too small</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutHome_RecahableAreaSmall</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_Redo</t>
+  </si>
+  <si>
+    <t>可重新调整位置以设计出理想的路线</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repositionable to design the optimal path</t>
+  </si>
+  <si>
+    <t>拖动您的城堡到战场上，确保有足够的绿色可行走区域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将怪物传送门放置到高亮区域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place the monster portal in the highlighted area</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag your castle onto the battlefield with enough green walkable area</t>
   </si>
 </sst>
 </file>
@@ -3479,21 +3565,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="E355" sqref="E355"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="7"/>
-    <col min="2" max="2" width="50.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="7"/>
+    <col min="2" max="2" width="50.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="41.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="67.75" style="7" customWidth="1"/>
     <col min="6" max="6" width="77.25" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="7"/>
+    <col min="7" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,7 +3912,7 @@
         <v>83</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -3837,7 +3923,7 @@
         <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -3848,7 +3934,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -3859,7 +3945,7 @@
         <v>89</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -3892,7 +3978,7 @@
         <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -3903,7 +3989,7 @@
         <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -3925,7 +4011,7 @@
         <v>104</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -3941,13 +4027,13 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -3985,24 +4071,24 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -4029,24 +4115,24 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -4054,10 +4140,10 @@
         <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -4065,10 +4151,10 @@
         <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -4087,10 +4173,10 @@
         <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -4098,10 +4184,10 @@
         <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -4112,7 +4198,7 @@
         <v>131</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -4120,10 +4206,10 @@
         <v>132</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -4131,10 +4217,10 @@
         <v>133</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -4239,7 +4325,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>157</v>
@@ -4250,24 +4336,24 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -4289,7 +4375,7 @@
         <v>163</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -4297,10 +4383,10 @@
         <v>164</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E73" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -4308,10 +4394,10 @@
         <v>165</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E74" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
@@ -4349,1139 +4435,1133 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>175</v>
+        <v>859</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>657</v>
+        <v>857</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>176</v>
+        <v>858</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>178</v>
+        <v>656</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>581</v>
+        <v>183</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>579</v>
+        <v>184</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>580</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>188</v>
+        <v>580</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>195</v>
+        <v>466</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>195</v>
+        <v>224</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>465</v>
+        <v>231</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>591</v>
+        <v>242</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>592</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>63</v>
+        <v>253</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E114" s="1" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E115" s="1" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E116" s="1" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="C119" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>574</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E122" s="1" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E124" s="3" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>708</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>671</v>
+        <v>709</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>599</v>
+        <v>711</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>632</v>
+        <v>833</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>632</v>
+        <v>835</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C139" s="3">
         <v>0</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E139" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="10" t="s">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="C140" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="E136" s="3" t="s">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="10"/>
-      <c r="E143" s="3"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>464</v>
+        <v>296</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="10" t="s">
-        <v>299</v>
+      <c r="B145" s="3" t="s">
+        <v>760</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>720</v>
+        <v>765</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>721</v>
+      <c r="B146" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>722</v>
+      <c r="B147" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>306</v>
-      </c>
+      <c r="B148" s="10"/>
+      <c r="E148" s="3"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E154" s="10" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B153" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C160" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E155" s="10" t="s">
+      <c r="E160" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="7" t="s">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E160" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C161" s="3"/>
+      <c r="E161" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C162" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C164" s="10"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="7" t="s">
+      <c r="C168" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C169" s="10"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C170" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E170" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="7" t="s">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C171" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E171" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="7" t="s">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E172" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="7" t="s">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C173" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E173" s="7" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B183" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>602</v>
+        <v>349</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" s="3" t="s">
-        <v>398</v>
+      <c r="B184" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>399</v>
+        <v>361</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
-        <v>582</v>
+        <v>363</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
@@ -5489,10 +5569,10 @@
         <v>394</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E187" t="s">
-        <v>323</v>
+        <v>400</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
@@ -5500,1467 +5580,1522 @@
         <v>396</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B189" s="7" t="s">
-        <v>367</v>
+      <c r="B189" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>238</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>241</v>
+        <v>581</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B191" s="3" t="s">
-        <v>562</v>
+      <c r="B191" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>604</v>
+        <v>368</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
-        <v>564</v>
+        <v>393</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E192" s="14" t="s">
-        <v>605</v>
+        <v>370</v>
+      </c>
+      <c r="E192" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B194" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>379</v>
+      <c r="B194" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>380</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
-        <v>415</v>
+        <v>561</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>606</v>
+        <v>562</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
-        <v>402</v>
+        <v>563</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B198" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>407</v>
+        <v>564</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>438</v>
+        <v>378</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>622</v>
+        <v>413</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>761</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>724</v>
+        <v>403</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B205" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>726</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
-        <v>570</v>
+        <v>407</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>727</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="E207" s="1"/>
+      <c r="B207" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
-        <v>627</v>
+        <v>409</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>628</v>
+        <v>536</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>760</v>
+        <v>722</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B209" s="3"/>
+      <c r="B209" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="3" t="s">
-        <v>412</v>
+        <v>568</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>776</v>
+        <v>570</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
-        <v>413</v>
+        <v>569</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>629</v>
+        <v>571</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>759</v>
+        <v>725</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B212" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="E212" s="1" t="s">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="E213" s="1"/>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>427</v>
+        <v>628</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="3" t="s">
-        <v>425</v>
+        <v>629</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>729</v>
+        <v>630</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B218" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>731</v>
-      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="E219" s="1"/>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>665</v>
+        <v>426</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C223" s="3"/>
-      <c r="E223" s="3"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B224" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>607</v>
+        <v>425</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B226" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B227" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>444</v>
+        <v>664</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="E228" s="3"/>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B229" s="3" t="s">
-        <v>448</v>
+        <v>560</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B230" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>453</v>
+        <v>431</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B231" s="3" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>625</v>
+        <v>443</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B233" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>626</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B235" s="3" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B236" s="3" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B239" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>473</v>
+        <v>457</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B240" s="3" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>609</v>
+        <v>492</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B241" s="3" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B243" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>483</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B247" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>611</v>
+        <v>475</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B248" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B252" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C252" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E253" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E248" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3" t="s">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C250" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E250" s="3" t="s">
+      <c r="C256" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B254" s="3" t="s">
+      <c r="E260" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="E254" s="4" t="s">
+      <c r="C261" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B264" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B266" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E266" s="4" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B255" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E255" s="7" t="s">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E270" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B256" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B257" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B258" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C258" s="3" t="s">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E271" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B259" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B261" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C261" s="4" t="s">
+    <row r="273" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C273" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E261" s="4" t="s">
+      <c r="E273" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B262" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B263" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B264" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B265" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B266" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B268" s="3" t="s">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B274" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C274" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E274" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B269" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B270" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B271" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B272" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B273" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B275" s="3" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>733</v>
+        <v>530</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B276" s="3" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>734</v>
+        <v>531</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B277" s="3" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>735</v>
+        <v>534</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B278" s="3" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B279" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>737</v>
+        <v>535</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B280" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B281" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B282" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B283" s="3" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B284" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B285" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
-      <c r="E286" s="3"/>
+      <c r="B286" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B287" t="s">
-        <v>578</v>
+      <c r="B287" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>743</v>
+        <v>555</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B288" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B289" s="3" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>613</v>
+        <v>739</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B290" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>577</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B294" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B295" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="E295" t="s">
         <v>645</v>
       </c>
-      <c r="E290" t="s">
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B296" s="3" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B291" s="3" t="s">
+      <c r="C296" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="E296" t="s">
         <v>648</v>
       </c>
-      <c r="E291" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="1" t="s">
+    </row>
+    <row r="298" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="E293" s="1" t="s">
+      <c r="C299" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E299" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="294" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="1" t="s">
+    <row r="300" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E294" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>663</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B297" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B298" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B299" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B301" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E301" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B302" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>686</v>
+        <v>649</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B303" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="E303" s="7" t="s">
-        <v>683</v>
+        <v>651</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B304" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E304" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E305" s="15"/>
+        <v>653</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B306" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="E306" s="15" t="s">
-        <v>753</v>
+        <v>678</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B307" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B308" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>673</v>
+      <c r="B308" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B309" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>675</v>
+      <c r="B309" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B310"/>
-      <c r="C310"/>
-      <c r="D310"/>
-      <c r="E310"/>
-      <c r="F310"/>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B312" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E312" t="s">
-        <v>695</v>
+      <c r="E310" s="15"/>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B311" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="E311" s="15" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B313" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>692</v>
+        <v>676</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E313" s="7" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B314" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>693</v>
+        <v>677</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="E314" s="7" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B315" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>694</v>
-      </c>
+      <c r="B315"/>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B317" s="3" t="s">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="E317" s="14" t="s">
-        <v>748</v>
+        <v>686</v>
+      </c>
+      <c r="E317" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B318" s="3" t="s">
-        <v>745</v>
+        <v>688</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="E318" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="F318"/>
+        <v>691</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B319" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B320" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B322" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E322" s="14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B323" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E323" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="F323"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B324" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C319" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E319" s="14" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B321" s="3" t="s">
+      <c r="E324" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B326" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B327" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="C321" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B322" s="3" t="s">
+      <c r="E327" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B328" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C328" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="E328" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B330" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B331" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B332" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B323" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="E323" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B325" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B326" s="3" t="s">
+      <c r="E332" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B334" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B327" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B329" s="3" t="s">
+      <c r="E334" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B335" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C335" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B336" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B330" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E330" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B331" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="E331" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B332" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B334" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
-      <c r="E335" s="1"/>
-    </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B336" s="3" t="s">
-        <v>792</v>
-      </c>
       <c r="C336" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="E336" s="7" t="s">
-        <v>793</v>
+        <v>848</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B337" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>796</v>
+        <v>849</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B339" s="3" t="s">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>821</v>
+        <v>787</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B340" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="E340" s="3" t="s">
-        <v>835</v>
-      </c>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="E340" s="1"/>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B341" s="7" t="s">
-        <v>802</v>
+      <c r="B341" s="3" t="s">
+        <v>788</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="E341" s="3" t="s">
-        <v>834</v>
+        <v>789</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B342" s="7" t="s">
-        <v>803</v>
+      <c r="B342" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="E342" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B343" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>817</v>
+        <v>856</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B344" s="3" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B345" s="7" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B346" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B347" s="3" t="s">
-        <v>812</v>
+      <c r="B347" s="7" t="s">
+        <v>796</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B348" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B349" s="7" t="s">
-        <v>805</v>
+      <c r="B349" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B350" s="7" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="E350" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B352" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B353" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B354" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B355" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B356" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E356" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B357" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B358" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B360" s="3" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B351" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E351" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B352" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="E352" s="3" t="s">
+      <c r="C360" s="3" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B353" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="E353" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B355" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>841</v>
+      <c r="E360" s="1" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
